--- a/00. 설계/개발프로세스.xlsx
+++ b/00. 설계/개발프로세스.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmhc6\OneDrive\바탕 화면\일\MES\00. 설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Storage\Study\Programing\Project\MES\00. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E420AFDD-3DF4-4917-8A3F-F5057E28F998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68937E99-D3E3-4D07-B775-DBB2AB4AAB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="13695" windowWidth="16080" windowHeight="14370" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
+    <workbookView xWindow="28875" yWindow="10035" windowWidth="16080" windowHeight="14370" activeTab="1" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
   <si>
     <t>공정 프로세스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +194,181 @@
   </si>
   <si>
     <t>Sheet Table 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수주관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_SalesOrder</t>
+  </si>
+  <si>
+    <t>Frm_SalesOrder_Create</t>
+  </si>
+  <si>
+    <t>출고관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회, 등록, 수정, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회, 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회, 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_Product_WorkPlan</t>
+  </si>
+  <si>
+    <t>Frm_Product_WorkPlan_Write</t>
+  </si>
+  <si>
+    <t>작업지시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_Product_WorkOrder</t>
+  </si>
+  <si>
+    <t>현장시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실적등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합코드 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI구상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_Info_Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_Info_CategoryItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_Info_Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_Info_Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_Sales_Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_Sales_OutView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_POP_Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량수량입력화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_POP_Product_Write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초정보관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF074C6-7C1D-4A04-8713-808EE2AE185F}">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -991,6 +1167,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B7:B36"/>
+    <mergeCell ref="C28:C30"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="A43:A47"/>
@@ -1007,8 +1185,326 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B7:B36"/>
-    <mergeCell ref="C28:C30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F089E176-9B74-4FFF-9008-056D895FBC0C}">
+  <dimension ref="B2:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00. 설계/개발프로세스.xlsx
+++ b/00. 설계/개발프로세스.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Storage\Study\Programing\Project\MES\00. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68937E99-D3E3-4D07-B775-DBB2AB4AAB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5BFC15-AACD-4CCF-8390-61BEDE32D5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28875" yWindow="10035" windowWidth="16080" windowHeight="14370" activeTab="1" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
+    <workbookView xWindow="28815" yWindow="11010" windowWidth="16080" windowHeight="14370" activeTab="2" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="설계현황" sheetId="2" r:id="rId2"/>
+    <sheet name="기능현황" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
   <si>
     <t>공정 프로세스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +370,30 @@
   </si>
   <si>
     <t>모듈설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능구현 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info_CateGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info_CateItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,6 +452,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,10 +810,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -794,9 +822,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
@@ -804,27 +832,27 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="E6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
@@ -832,25 +860,25 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="4"/>
       <c r="E8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="4"/>
       <c r="E9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
@@ -858,25 +886,25 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="4"/>
       <c r="E11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="4"/>
       <c r="E12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
@@ -884,25 +912,25 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="4"/>
       <c r="E14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="4"/>
       <c r="E15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
@@ -910,25 +938,25 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="4"/>
       <c r="E17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="4"/>
       <c r="E18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E19" t="s">
@@ -936,25 +964,25 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="4"/>
       <c r="E20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="4"/>
       <c r="E21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
@@ -962,25 +990,25 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="4"/>
       <c r="E23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="4"/>
       <c r="E24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="s">
@@ -988,25 +1016,25 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="4"/>
       <c r="E26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="4"/>
       <c r="E27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
@@ -1014,25 +1042,25 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="4"/>
       <c r="E29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="4"/>
       <c r="E30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
@@ -1040,25 +1068,25 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="4"/>
       <c r="E32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="4"/>
       <c r="E33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E34" t="s">
@@ -1066,25 +1094,25 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="4"/>
       <c r="E35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="4"/>
       <c r="E36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E37" t="s">
@@ -1092,25 +1120,25 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
       <c r="E38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
       <c r="E39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E40" t="s">
@@ -1118,23 +1146,23 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
       <c r="E41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
       <c r="E42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C43" t="s">
@@ -1142,31 +1170,33 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
+      <c r="A44" s="4"/>
       <c r="C44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
+      <c r="A45" s="4"/>
       <c r="C45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
+      <c r="A46" s="4"/>
       <c r="C46" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
+      <c r="A47" s="4"/>
       <c r="C47" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="B7:B36"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="C31:C33"/>
@@ -1183,8 +1213,6 @@
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1195,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F089E176-9B74-4FFF-9008-056D895FBC0C}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1251,10 +1279,13 @@
       <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1277,6 +1308,9 @@
       <c r="H4" t="s">
         <v>68</v>
       </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -1297,6 +1331,9 @@
       <c r="H5" t="s">
         <v>68</v>
       </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
@@ -1314,12 +1351,18 @@
       <c r="G6" t="s">
         <v>68</v>
       </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1342,7 +1385,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1363,7 +1406,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1380,7 +1423,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1398,7 +1441,7 @@
       <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1421,7 +1464,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
@@ -1468,7 +1511,7 @@
       <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1483,9 +1526,12 @@
       <c r="G14" t="s">
         <v>68</v>
       </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
         <v>79</v>
       </c>
@@ -1496,6 +1542,9 @@
         <v>81</v>
       </c>
       <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1509,4 +1558,285 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104877A0-CF4F-46B8-B1E2-9DA067564B02}">
+  <dimension ref="B2:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D4:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/00. 설계/개발프로세스.xlsx
+++ b/00. 설계/개발프로세스.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Storage\Study\Programing\Project\MES\00. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5BFC15-AACD-4CCF-8390-61BEDE32D5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90827B8-25D2-4F03-8D98-69AD45098A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28815" yWindow="11010" windowWidth="16080" windowHeight="14370" activeTab="2" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="93">
   <si>
     <t>공정 프로세스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,14 @@
   </si>
   <si>
     <t>Info_CateItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info_Customer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,10 +459,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,7 +860,7 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -861,7 +872,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="E8" t="s">
         <v>30</v>
@@ -869,7 +880,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="E9" t="s">
         <v>28</v>
@@ -877,7 +888,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
@@ -887,7 +898,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="E11" t="s">
         <v>31</v>
@@ -895,7 +906,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="4"/>
       <c r="E12" t="s">
         <v>28</v>
@@ -903,7 +914,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
@@ -913,7 +924,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="E14" t="s">
         <v>32</v>
@@ -921,7 +932,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="4"/>
       <c r="E15" t="s">
         <v>28</v>
@@ -929,7 +940,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
@@ -939,7 +950,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="4"/>
       <c r="E17" t="s">
         <v>11</v>
@@ -947,7 +958,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="4"/>
       <c r="E18" t="s">
         <v>28</v>
@@ -955,7 +966,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
@@ -965,7 +976,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="E20" t="s">
         <v>31</v>
@@ -973,7 +984,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="E21" t="s">
         <v>28</v>
@@ -981,7 +992,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
@@ -991,7 +1002,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="E23" t="s">
         <v>33</v>
@@ -999,7 +1010,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="E24" t="s">
         <v>28</v>
@@ -1007,7 +1018,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
@@ -1017,7 +1028,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="3"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="4"/>
       <c r="E26" t="s">
         <v>34</v>
@@ -1025,7 +1036,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="3"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="4"/>
       <c r="E27" t="s">
         <v>28</v>
@@ -1033,7 +1044,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
@@ -1043,7 +1054,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="3"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="E29" t="s">
         <v>35</v>
@@ -1051,7 +1062,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="3"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="4"/>
       <c r="E30" t="s">
         <v>28</v>
@@ -1059,7 +1070,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="3"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
@@ -1069,7 +1080,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="3"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="4"/>
       <c r="E32" t="s">
         <v>36</v>
@@ -1077,7 +1088,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="3"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="E33" t="s">
         <v>28</v>
@@ -1085,7 +1096,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="3"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="4" t="s">
         <v>14</v>
       </c>
@@ -1095,7 +1106,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="4"/>
       <c r="E35" t="s">
         <v>14</v>
@@ -1103,7 +1114,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="3"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="E36" t="s">
         <v>28</v>
@@ -1195,12 +1206,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B7:B36"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="B37:B42"/>
@@ -1213,6 +1218,12 @@
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B7:B36"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1224,7 +1235,7 @@
   <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1562,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104877A0-CF4F-46B8-B1E2-9DA067564B02}">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1685,100 +1696,106 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
+      <c r="F11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="4" t="s">
-        <v>49</v>
+      <c r="C15" t="s">
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="4"/>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -1787,54 +1804,101 @@
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>61</v>
+      <c r="C19" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="1" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E25" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E4:E9"/>
+  <mergeCells count="13">
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E4:E10"/>
     <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F7:F10"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00. 설계/개발프로세스.xlsx
+++ b/00. 설계/개발프로세스.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Storage\Study\Programing\Project\MES\00. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90827B8-25D2-4F03-8D98-69AD45098A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3209FE1-5E06-4D50-95B4-551D5689B5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="11010" windowWidth="16080" windowHeight="14370" activeTab="2" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
+    <workbookView xWindow="28920" yWindow="11565" windowWidth="16080" windowHeight="14370" activeTab="2" xr2:uid="{6FFB4B5A-5F32-430F-A257-1851DE962E89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="103">
   <si>
     <t>공정 프로세스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,43 @@
   </si>
   <si>
     <t>Info_Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info_Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info_Customer</t>
+  </si>
+  <si>
+    <t>Info_CategoryItem</t>
+  </si>
+  <si>
+    <t>Info_Process</t>
+  </si>
+  <si>
+    <t>Info_Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_Sales_Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frm_Sales_Order_Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반제품 화면 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales_OrderMaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales_OrderDetail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,12 +485,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,10 +864,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,9 +876,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
@@ -843,27 +886,27 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="E6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
@@ -871,25 +914,25 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
       <c r="E8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
       <c r="E9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
@@ -897,25 +940,25 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
       <c r="E11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
       <c r="E12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
@@ -923,25 +966,25 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
       <c r="E14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
       <c r="E15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
@@ -949,25 +992,25 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
       <c r="E17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="E18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E19" t="s">
@@ -975,25 +1018,25 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
       <c r="E20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
       <c r="E21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
@@ -1001,25 +1044,25 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
       <c r="E23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
       <c r="E24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="s">
@@ -1027,25 +1070,25 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
       <c r="E26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
       <c r="E27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
@@ -1053,25 +1096,25 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
       <c r="E29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="E30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
@@ -1079,25 +1122,25 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
       <c r="E32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
       <c r="E33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E34" t="s">
@@ -1105,25 +1148,25 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
       <c r="E35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
       <c r="E36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E37" t="s">
@@ -1131,25 +1174,25 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
       <c r="E38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="E39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E40" t="s">
@@ -1157,23 +1200,23 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
       <c r="E41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
       <c r="E42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C43" t="s">
@@ -1181,31 +1224,35 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
+      <c r="A44" s="6"/>
       <c r="C44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+      <c r="A45" s="6"/>
       <c r="C45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
+      <c r="A46" s="6"/>
       <c r="C46" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
+      <c r="A47" s="6"/>
       <c r="C47" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B7:B36"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="B37:B42"/>
@@ -1220,10 +1267,6 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B7:B36"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1373,7 +1416,7 @@
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1396,7 +1439,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1417,7 +1460,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1434,7 +1477,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1452,7 +1495,7 @@
       <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1475,7 +1518,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
@@ -1522,7 +1565,7 @@
       <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1542,7 +1585,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
         <v>79</v>
       </c>
@@ -1573,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104877A0-CF4F-46B8-B1E2-9DA067564B02}">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1585,7 +1628,7 @@
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1618,19 +1661,19 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>89</v>
       </c>
       <c r="G4" t="s">
@@ -1641,10 +1684,11 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="G5" t="s">
         <v>81</v>
       </c>
@@ -1653,10 +1697,11 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" t="s">
         <v>85</v>
       </c>
@@ -1665,10 +1710,11 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>90</v>
       </c>
       <c r="G7" t="s">
@@ -1679,10 +1725,11 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" t="s">
         <v>81</v>
       </c>
@@ -1691,10 +1738,11 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" t="s">
         <v>91</v>
       </c>
@@ -1703,10 +1751,11 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" t="s">
         <v>85</v>
       </c>
@@ -1715,190 +1764,401 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G11" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="F16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E23" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="F23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-      <c r="D18" s="1" t="s">
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="6"/>
+      <c r="D29" s="1"/>
+      <c r="F29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+      <c r="D30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="4" t="s">
+      <c r="E30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="1" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="6"/>
+      <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="1" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="6"/>
+      <c r="D34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C36" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
-      <c r="D25" s="1" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="6"/>
+      <c r="D37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E37" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
+  <mergeCells count="22">
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C37"/>
     <mergeCell ref="C4:C10"/>
     <mergeCell ref="D4:D10"/>
     <mergeCell ref="F11:F14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
     <mergeCell ref="E4:E10"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F7:F10"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B4:B27"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
